--- a/Copy of mc_property_scores.xlsx
+++ b/Copy of mc_property_scores.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mc_property_scores!$A$1:$U$27</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1157,14 +1157,14 @@
         <v>19</v>
       </c>
       <c r="B2" s="1">
-        <f>SQRT(SUMSQ(E2:J2))</f>
+        <f t="shared" ref="B2:B27" si="0">SQRT(SUMSQ(E2:J2))</f>
         <v>1.5315637340829387</v>
       </c>
       <c r="C2" s="1">
         <v>4.5156331058223902</v>
       </c>
       <c r="D2" s="1">
-        <f>SUMPRODUCT(ABS(E2:U2))/18</f>
+        <f t="shared" ref="D2:D27" si="1">SUMPRODUCT(ABS(E2:U2))/18</f>
         <v>0.78537744284950961</v>
       </c>
       <c r="E2" s="1">
@@ -1224,14 +1224,14 @@
         <v>20</v>
       </c>
       <c r="B3" s="1">
-        <f>SQRT(SUMSQ(E3:J3))</f>
+        <f t="shared" si="0"/>
         <v>1.0203041400919337</v>
       </c>
       <c r="C3" s="1">
         <v>5.7874545201641299</v>
       </c>
       <c r="D3" s="1">
-        <f>SUMPRODUCT(ABS(E3:U3))/18</f>
+        <f t="shared" si="1"/>
         <v>0.97414180396764527</v>
       </c>
       <c r="E3" s="1">
@@ -1291,14 +1291,14 @@
         <v>21</v>
       </c>
       <c r="B4" s="1">
-        <f>SQRT(SUMSQ(E4:J4))</f>
+        <f t="shared" si="0"/>
         <v>1.8284286167401198</v>
       </c>
       <c r="C4" s="1">
         <v>6.15094609467344</v>
       </c>
       <c r="D4" s="1">
-        <f>SUMPRODUCT(ABS(E4:U4))/18</f>
+        <f t="shared" si="1"/>
         <v>1.1013611056939938</v>
       </c>
       <c r="E4" s="1">
@@ -1358,14 +1358,14 @@
         <v>22</v>
       </c>
       <c r="B5" s="1">
-        <f>SQRT(SUMSQ(E5:J5))</f>
+        <f t="shared" si="0"/>
         <v>1.8284286167401198</v>
       </c>
       <c r="C5" s="1">
         <v>6.15094609467344</v>
       </c>
       <c r="D5" s="1">
-        <f>SUMPRODUCT(ABS(E5:U5))/18</f>
+        <f t="shared" si="1"/>
         <v>1.1013611056939938</v>
       </c>
       <c r="E5" s="1">
@@ -1425,14 +1425,14 @@
         <v>23</v>
       </c>
       <c r="B6" s="1">
-        <f>SQRT(SUMSQ(E6:J6))</f>
+        <f t="shared" si="0"/>
         <v>1.9155488954013713</v>
       </c>
       <c r="C6" s="1">
         <v>6.2056328623361203</v>
       </c>
       <c r="D6" s="1">
-        <f>SUMPRODUCT(ABS(E6:U6))/18</f>
+        <f t="shared" si="1"/>
         <v>1.1128918725491366</v>
       </c>
       <c r="E6" s="1">
@@ -1492,14 +1492,14 @@
         <v>24</v>
       </c>
       <c r="B7" s="1">
-        <f>SQRT(SUMSQ(E7:J7))</f>
+        <f t="shared" si="0"/>
         <v>1.6676946564962714</v>
       </c>
       <c r="C7" s="1">
         <v>6.20916592770749</v>
       </c>
       <c r="D7" s="1">
-        <f>SUMPRODUCT(ABS(E7:U7))/18</f>
+        <f t="shared" si="1"/>
         <v>1.0669049555888825</v>
       </c>
       <c r="E7" s="1">
@@ -1559,14 +1559,14 @@
         <v>25</v>
       </c>
       <c r="B8" s="1">
-        <f>SQRT(SUMSQ(E8:J8))</f>
+        <f t="shared" si="0"/>
         <v>1.8805430267879359</v>
       </c>
       <c r="C8" s="1">
         <v>6.2353933867631</v>
       </c>
       <c r="D8" s="1">
-        <f>SUMPRODUCT(ABS(E8:U8))/18</f>
+        <f t="shared" si="1"/>
         <v>1.1487134903703411</v>
       </c>
       <c r="E8" s="1">
@@ -1626,14 +1626,14 @@
         <v>26</v>
       </c>
       <c r="B9" s="1">
-        <f>SQRT(SUMSQ(E9:J9))</f>
+        <f t="shared" si="0"/>
         <v>1.667652211440833</v>
       </c>
       <c r="C9" s="1">
         <v>6.2487377846004097</v>
       </c>
       <c r="D9" s="1">
-        <f>SUMPRODUCT(ABS(E9:U9))/18</f>
+        <f t="shared" si="1"/>
         <v>1.0778776484632278</v>
       </c>
       <c r="E9" s="1">
@@ -1693,14 +1693,14 @@
         <v>27</v>
       </c>
       <c r="B10" s="1">
-        <f>SQRT(SUMSQ(E10:J10))</f>
+        <f t="shared" si="0"/>
         <v>1.9140714680787188</v>
       </c>
       <c r="C10" s="1">
         <v>6.4140533216689102</v>
       </c>
       <c r="D10" s="1">
-        <f>SUMPRODUCT(ABS(E10:U10))/18</f>
+        <f t="shared" si="1"/>
         <v>1.148268043393158</v>
       </c>
       <c r="E10" s="1">
@@ -1760,14 +1760,14 @@
         <v>28</v>
       </c>
       <c r="B11" s="1">
-        <f>SQRT(SUMSQ(E11:J11))</f>
+        <f t="shared" si="0"/>
         <v>0.90685524817331875</v>
       </c>
       <c r="C11" s="1">
         <v>6.7939055024690198</v>
       </c>
       <c r="D11" s="1">
-        <f>SUMPRODUCT(ABS(E11:U11))/18</f>
+        <f t="shared" si="1"/>
         <v>0.99382242553157363</v>
       </c>
       <c r="E11" s="1">
@@ -1827,14 +1827,14 @@
         <v>29</v>
       </c>
       <c r="B12" s="1">
-        <f>SQRT(SUMSQ(E12:J12))</f>
+        <f t="shared" si="0"/>
         <v>3.8494834887433358</v>
       </c>
       <c r="C12" s="1">
         <v>6.9133312928947204</v>
       </c>
       <c r="D12" s="1">
-        <f>SUMPRODUCT(ABS(E12:U12))/18</f>
+        <f t="shared" si="1"/>
         <v>1.2287231940864156</v>
       </c>
       <c r="E12" s="1">
@@ -1894,14 +1894,14 @@
         <v>78</v>
       </c>
       <c r="B13" s="2">
-        <f>SQRT(SUMSQ(E13:J13))</f>
+        <f t="shared" si="0"/>
         <v>1.4371036218681534</v>
       </c>
       <c r="C13" s="2">
         <v>8.25</v>
       </c>
       <c r="D13" s="2">
-        <f>SUMPRODUCT(ABS(E13:U13))/18</f>
+        <f t="shared" si="1"/>
         <v>0.64694265467158241</v>
       </c>
       <c r="E13" s="2">
@@ -1969,14 +1969,14 @@
         <v>30</v>
       </c>
       <c r="B14" s="1">
-        <f>SQRT(SUMSQ(E14:J14))</f>
+        <f t="shared" si="0"/>
         <v>4.0461057727435437</v>
       </c>
       <c r="C14" s="1">
         <v>8.3675188046967293</v>
       </c>
       <c r="D14" s="1">
-        <f>SUMPRODUCT(ABS(E14:U14))/18</f>
+        <f t="shared" si="1"/>
         <v>1.5416243753673551</v>
       </c>
       <c r="E14" s="1">
@@ -2036,14 +2036,14 @@
         <v>31</v>
       </c>
       <c r="B15" s="1">
-        <f>SQRT(SUMSQ(E15:J15))</f>
+        <f t="shared" si="0"/>
         <v>6.1666205658509083</v>
       </c>
       <c r="C15" s="1">
         <v>8.6336082243501497</v>
       </c>
       <c r="D15" s="1">
-        <f>SUMPRODUCT(ABS(E15:U15))/18</f>
+        <f t="shared" si="1"/>
         <v>1.4230738950102644</v>
       </c>
       <c r="E15" s="1">
@@ -2103,14 +2103,14 @@
         <v>32</v>
       </c>
       <c r="B16" s="1">
-        <f>SQRT(SUMSQ(E16:J16))</f>
+        <f t="shared" si="0"/>
         <v>6.4229552927714195</v>
       </c>
       <c r="C16" s="1">
         <v>8.8106078821681599</v>
       </c>
       <c r="D16" s="1">
-        <f>SUMPRODUCT(ABS(E16:U16))/18</f>
+        <f t="shared" si="1"/>
         <v>1.4293168092312529</v>
       </c>
       <c r="E16" s="1">
@@ -2170,14 +2170,14 @@
         <v>33</v>
       </c>
       <c r="B17" s="1">
-        <f>SQRT(SUMSQ(E17:J17))</f>
+        <f t="shared" si="0"/>
         <v>3.1363064180434876</v>
       </c>
       <c r="C17" s="1">
         <v>8.8370130368418902</v>
       </c>
       <c r="D17" s="1">
-        <f>SUMPRODUCT(ABS(E17:U17))/18</f>
+        <f t="shared" si="1"/>
         <v>1.506434326319551</v>
       </c>
       <c r="E17" s="1">
@@ -2237,14 +2237,14 @@
         <v>34</v>
       </c>
       <c r="B18" s="1">
-        <f>SQRT(SUMSQ(E18:J18))</f>
+        <f t="shared" si="0"/>
         <v>6.4131482683846439</v>
       </c>
       <c r="C18" s="1">
         <v>9.1703928522458895</v>
       </c>
       <c r="D18" s="1">
-        <f>SUMPRODUCT(ABS(E18:U18))/18</f>
+        <f t="shared" si="1"/>
         <v>1.5250558940228554</v>
       </c>
       <c r="E18" s="1">
@@ -2304,14 +2304,14 @@
         <v>35</v>
       </c>
       <c r="B19" s="1">
-        <f>SQRT(SUMSQ(E19:J19))</f>
+        <f t="shared" si="0"/>
         <v>2.7669277839058388</v>
       </c>
       <c r="C19" s="1">
         <v>10.2859734031444</v>
       </c>
       <c r="D19" s="1">
-        <f>SUMPRODUCT(ABS(E19:U19))/18</f>
+        <f t="shared" si="1"/>
         <v>1.6483685883631454</v>
       </c>
       <c r="E19" s="1">
@@ -2371,14 +2371,14 @@
         <v>36</v>
       </c>
       <c r="B20" s="1">
-        <f>SQRT(SUMSQ(E20:J20))</f>
+        <f t="shared" si="0"/>
         <v>2.7420721563322172</v>
       </c>
       <c r="C20" s="1">
         <v>10.644933140741101</v>
       </c>
       <c r="D20" s="1">
-        <f>SUMPRODUCT(ABS(E20:U20))/18</f>
+        <f t="shared" si="1"/>
         <v>1.8427062842683044</v>
       </c>
       <c r="E20" s="1">
@@ -2438,14 +2438,14 @@
         <v>37</v>
       </c>
       <c r="B21" s="1">
-        <f>SQRT(SUMSQ(E21:J21))</f>
+        <f t="shared" si="0"/>
         <v>4.0950467710259968</v>
       </c>
       <c r="C21" s="1">
         <v>10.6528384633218</v>
       </c>
       <c r="D21" s="1">
-        <f>SUMPRODUCT(ABS(E21:U21))/18</f>
+        <f t="shared" si="1"/>
         <v>2.0639893959074458</v>
       </c>
       <c r="E21" s="1">
@@ -2505,14 +2505,14 @@
         <v>38</v>
       </c>
       <c r="B22" s="1">
-        <f>SQRT(SUMSQ(E22:J22))</f>
+        <f t="shared" si="0"/>
         <v>2.8729190939871141</v>
       </c>
       <c r="C22" s="1">
         <v>10.9093752200727</v>
       </c>
       <c r="D22" s="1">
-        <f>SUMPRODUCT(ABS(E22:U22))/18</f>
+        <f t="shared" si="1"/>
         <v>1.7214860472741718</v>
       </c>
       <c r="E22" s="1">
@@ -2572,14 +2572,14 @@
         <v>39</v>
       </c>
       <c r="B23" s="1">
-        <f>SQRT(SUMSQ(E23:J23))</f>
+        <f t="shared" si="0"/>
         <v>2.7835651111692448</v>
       </c>
       <c r="C23" s="1">
         <v>11.578132789530301</v>
       </c>
       <c r="D23" s="1">
-        <f>SUMPRODUCT(ABS(E23:U23))/18</f>
+        <f t="shared" si="1"/>
         <v>1.9808253716471265</v>
       </c>
       <c r="E23" s="1">
@@ -2639,14 +2639,14 @@
         <v>40</v>
       </c>
       <c r="B24" s="1">
-        <f>SQRT(SUMSQ(E24:J24))</f>
+        <f t="shared" si="0"/>
         <v>3.1262110669056726</v>
       </c>
       <c r="C24" s="1">
         <v>12.217591312232599</v>
       </c>
       <c r="D24" s="1">
-        <f>SUMPRODUCT(ABS(E24:U24))/18</f>
+        <f t="shared" si="1"/>
         <v>2.1620106687524121</v>
       </c>
       <c r="E24" s="1">
@@ -2706,14 +2706,14 @@
         <v>41</v>
       </c>
       <c r="B25" s="1">
-        <f>SQRT(SUMSQ(E25:J25))</f>
+        <f t="shared" si="0"/>
         <v>2.6408121997222747</v>
       </c>
       <c r="C25" s="1">
         <v>12.381802727922</v>
       </c>
       <c r="D25" s="1">
-        <f>SUMPRODUCT(ABS(E25:U25))/18</f>
+        <f t="shared" si="1"/>
         <v>2.0706870734203253</v>
       </c>
       <c r="E25" s="1">
@@ -2773,14 +2773,14 @@
         <v>42</v>
       </c>
       <c r="B26" s="1">
-        <f>SQRT(SUMSQ(E26:J26))</f>
+        <f t="shared" si="0"/>
         <v>2.6067000227457733</v>
       </c>
       <c r="C26" s="1">
         <v>12.4559810172351</v>
       </c>
       <c r="D26" s="1">
-        <f>SUMPRODUCT(ABS(E26:U26))/18</f>
+        <f t="shared" si="1"/>
         <v>1.9875055748681649</v>
       </c>
       <c r="E26" s="1">
@@ -2840,14 +2840,14 @@
         <v>43</v>
       </c>
       <c r="B27" s="1">
-        <f>SQRT(SUMSQ(E27:J27))</f>
+        <f t="shared" si="0"/>
         <v>3.1351532427992055</v>
       </c>
       <c r="C27" s="1">
         <v>13.6330407059833</v>
       </c>
       <c r="D27" s="1">
-        <f>SUMPRODUCT(ABS(E27:U27))/18</f>
+        <f t="shared" si="1"/>
         <v>2.2607655292450137</v>
       </c>
       <c r="E27" s="1">
